--- a/artfynd/A 16442-2023.xlsx
+++ b/artfynd/A 16442-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525234</v>
+        <v>111525237</v>
       </c>
       <c r="B2" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404542.4279557943</v>
+        <v>404472.9612160316</v>
       </c>
       <c r="R2" t="n">
-        <v>6706754.164833304</v>
+        <v>6706723.452812355</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525236</v>
+        <v>111525234</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404471.921986955</v>
+        <v>404542.4279557943</v>
       </c>
       <c r="R3" t="n">
-        <v>6706721.507764764</v>
+        <v>6706754.164833304</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525237</v>
+        <v>111525236</v>
       </c>
       <c r="B4" t="n">
         <v>77515</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404472.9612160316</v>
+        <v>404471.921986955</v>
       </c>
       <c r="R4" t="n">
-        <v>6706723.452812355</v>
+        <v>6706721.507764764</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 16442-2023.xlsx
+++ b/artfynd/A 16442-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525237</v>
+        <v>111525236</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404472.9612160316</v>
+        <v>404471.921986955</v>
       </c>
       <c r="R2" t="n">
-        <v>6706723.452812355</v>
+        <v>6706721.507764764</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525236</v>
+        <v>111525237</v>
       </c>
       <c r="B4" t="n">
         <v>77515</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404471.921986955</v>
+        <v>404472.9612160316</v>
       </c>
       <c r="R4" t="n">
-        <v>6706721.507764764</v>
+        <v>6706723.452812355</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 16442-2023.xlsx
+++ b/artfynd/A 16442-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525234</v>
+        <v>111525237</v>
       </c>
       <c r="B3" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404542.4279557943</v>
+        <v>404472.9612160316</v>
       </c>
       <c r="R3" t="n">
-        <v>6706754.164833304</v>
+        <v>6706723.452812355</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525237</v>
+        <v>111525234</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404472.9612160316</v>
+        <v>404542.4279557943</v>
       </c>
       <c r="R4" t="n">
-        <v>6706723.452812355</v>
+        <v>6706754.164833304</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 16442-2023.xlsx
+++ b/artfynd/A 16442-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525236</v>
+        <v>111525237</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404471.921986955</v>
+        <v>404472.9612160316</v>
       </c>
       <c r="R2" t="n">
-        <v>6706721.507764764</v>
+        <v>6706723.452812355</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525237</v>
+        <v>111525236</v>
       </c>
       <c r="B3" t="n">
         <v>77515</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404472.9612160316</v>
+        <v>404471.921986955</v>
       </c>
       <c r="R3" t="n">
-        <v>6706723.452812355</v>
+        <v>6706721.507764764</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 16442-2023.xlsx
+++ b/artfynd/A 16442-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525237</v>
+        <v>111525236</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404472.9612160316</v>
+        <v>404471.921986955</v>
       </c>
       <c r="R2" t="n">
-        <v>6706723.452812355</v>
+        <v>6706721.507764764</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525236</v>
+        <v>111525234</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404471.921986955</v>
+        <v>404542.4279557943</v>
       </c>
       <c r="R3" t="n">
-        <v>6706721.507764764</v>
+        <v>6706754.164833304</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525234</v>
+        <v>111525237</v>
       </c>
       <c r="B4" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404542.4279557943</v>
+        <v>404472.9612160316</v>
       </c>
       <c r="R4" t="n">
-        <v>6706754.164833304</v>
+        <v>6706723.452812355</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 16442-2023.xlsx
+++ b/artfynd/A 16442-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525236</v>
+        <v>111525234</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404471.921986955</v>
+        <v>404542.4279557943</v>
       </c>
       <c r="R2" t="n">
-        <v>6706721.507764764</v>
+        <v>6706754.164833304</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525234</v>
+        <v>111525236</v>
       </c>
       <c r="B3" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404542.4279557943</v>
+        <v>404471.921986955</v>
       </c>
       <c r="R3" t="n">
-        <v>6706754.164833304</v>
+        <v>6706721.507764764</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 16442-2023.xlsx
+++ b/artfynd/A 16442-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525234</v>
+        <v>111525236</v>
       </c>
       <c r="B2" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404542.4279557943</v>
+        <v>404471.921986955</v>
       </c>
       <c r="R2" t="n">
-        <v>6706754.164833304</v>
+        <v>6706721.507764764</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525236</v>
+        <v>111525237</v>
       </c>
       <c r="B3" t="n">
         <v>77515</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404471.921986955</v>
+        <v>404472.9612160316</v>
       </c>
       <c r="R3" t="n">
-        <v>6706721.507764764</v>
+        <v>6706723.452812355</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525237</v>
+        <v>111525234</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404472.9612160316</v>
+        <v>404542.4279557943</v>
       </c>
       <c r="R4" t="n">
-        <v>6706723.452812355</v>
+        <v>6706754.164833304</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
